--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_564.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_564.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33260-d82619-Reviews-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Westminster-South-Long-Beach.h996242.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529167269443&amp;cancellable=false&amp;regionId=7778&amp;vip=false&amp;c=26674ab1-9a41-4094-94c0-5b4298032923&amp;mctc=9&amp;exp_dp=75.99&amp;exp_ts=1529167269902&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_564.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_564.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,222 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r404966840-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>33260</t>
+  </si>
+  <si>
+    <t>82619</t>
+  </si>
+  <si>
+    <t>404966840</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Quick stop off to catch some Zs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a 10 hour flight from England, this was the first motel we came across on our drive from LA to San Diego. It was a fair motel 6. We would have preferred a ground floor room but we were walk ins so couldn't really complain. Local cafe good to grab some food too. Beds fairly comfortable. Room slightly dirty but it's cheap enough. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r274916212-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>274916212</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Not Worth At All</t>
+  </si>
+  <si>
+    <t>First of all i would like to start by saying some good words. ~~~ Good One's ~~~Staff's are excellent. They are responsive and very friendly. Location was good. Gas station and In/Out Burger near by. Free Ice Machine :), i liked it.~~~ Bad Ones ~~~The room was pathetic. Very small shower space. (Fatty boys like me cant fit for sure).AC makes lot of noise.  Even the Airplane makes less noise. Zero cooling.Bed is too hard and not at all comfortable. Sleep on a rock instead.Charged for a cancelled reservation. They will refund back, but it is unnecessarily blocking my Card.Parking lot is little cramped. If you ask me  if it is worth the money, i would partially agree. But just a few xtra bucks will help to make your stay more memorable.ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Westminster South, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>First of all i would like to start by saying some good words. ~~~ Good One's ~~~Staff's are excellent. They are responsive and very friendly. Location was good. Gas station and In/Out Burger near by. Free Ice Machine :), i liked it.~~~ Bad Ones ~~~The room was pathetic. Very small shower space. (Fatty boys like me cant fit for sure).AC makes lot of noise.  Even the Airplane makes less noise. Zero cooling.Bed is too hard and not at all comfortable. Sleep on a rock instead.Charged for a cancelled reservation. They will refund back, but it is unnecessarily blocking my Card.Parking lot is little cramped. If you ask me  if it is worth the money, i would partially agree. But just a few xtra bucks will help to make your stay more memorable.ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r248872850-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>248872850</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Located RIGHT next to FREEWAY OFF RAMP</t>
+  </si>
+  <si>
+    <t>Need I say more than that, this location is not in the best section of town and like reported before has some questionable folks hanging around it.  The only good thing about this location is it right next door to a great IN-N-OUT.  Outside of that I would recommend bringing your own sheets and towels too, and possibly a big can of Lysol.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r211779349-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>211779349</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Left after 5 minutes</t>
+  </si>
+  <si>
+    <t>As soon as we walked in my 11 year old daughter wanted to leave. Non smoking room, smelled like cigarettes. It was musty, stinky, and damp.  When I pulled the covers off of the bed it looked like someone had emptied a hairbrush between the sheets.  When I went to the office to ask for new sheets (even though we were going to sleep in our sleeping bags) the lady in the office was kind and gave me new ones.  Well, when the new ones were covered with hair too we just had to leave.  I felt bad, but with the not so safe location and the fact that the place just wasn't clean we never would have slept through the night.  Do yourself a favor and go somewhere else unless you enjoy staying somewhere disgusting.  Oh and my money was returned with no problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>As soon as we walked in my 11 year old daughter wanted to leave. Non smoking room, smelled like cigarettes. It was musty, stinky, and damp.  When I pulled the covers off of the bed it looked like someone had emptied a hairbrush between the sheets.  When I went to the office to ask for new sheets (even though we were going to sleep in our sleeping bags) the lady in the office was kind and gave me new ones.  Well, when the new ones were covered with hair too we just had to leave.  I felt bad, but with the not so safe location and the fact that the place just wasn't clean we never would have slept through the night.  Do yourself a favor and go somewhere else unless you enjoy staying somewhere disgusting.  Oh and my money was returned with no problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r198577602-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>198577602</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>This place looked okay during the day...... but at night it was crawling with junkies and dealers.  Very very sketchy place that made us feel truly uncomfortable.  We are on a tight budget and have stayed in low cost motels, but this was the first that made us feel truly unsafe.  After coming back from the beach an addict was being arrested in the parking lot for stealing someone wallet.  Thats when we decided enough was enough and ended up sleeping in the car by the beach which felt a magnitude safer.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r152808595-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>152808595</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>My stay at this motel was great from the staff to the room and the location.</t>
+  </si>
+  <si>
+    <t>I love this place. The staff made me feel very comfortable. Everyone is extremely friendly and the room was comfortable and clean. Also my dog can stay. I love it. Not to mention affordable prices and great location. Just a great motel. I would recommend this motel to everyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r80597685-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>80597685</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>An alright place for a night</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 for one short night as it is right around the corner from a fiend's place.  I was concerned that the area did not seem the greatest and the property seemed a little run-down. The room I was given was okay, but as is always the case with Motel 6, no frills.  I had asked from  a quiet room, since the motel is right next to the very busy 405 freeway.   I think they gave me the quietest location possible, but, it was still fairly loud, but not too bad, considering the amount of traffic on the freeway.  The WiFi (currently $2.99 for 24 hours access) was fine.  Overall, I was a bit concerned about staying here, and I am unsure if I would stay again. It is the cheapest rate around, but I wonder if more money in a nicer area might be worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 for one short night as it is right around the corner from a fiend's place.  I was concerned that the area did not seem the greatest and the property seemed a little run-down. The room I was given was okay, but as is always the case with Motel 6, no frills.  I had asked from  a quiet room, since the motel is right next to the very busy 405 freeway.   I think they gave me the quietest location possible, but, it was still fairly loud, but not too bad, considering the amount of traffic on the freeway.  The WiFi (currently $2.99 for 24 hours access) was fine.  Overall, I was a bit concerned about staying here, and I am unsure if I would stay again. It is the cheapest rate around, but I wonder if more money in a nicer area might be worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r67428444-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>67428444</t>
+  </si>
+  <si>
+    <t>06/13/2010</t>
+  </si>
+  <si>
+    <t>Watch out for customer service!`</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. When we checked we noticed that we did not have any towels to take a shower. We went back to the front desk, who stated that someone will be back to our room. After an hour we called the front desk again to be told the towels will arrive shortly. After 3 hours, went back to the front desk and asked to speak with a manager. I asked him if he knows that we have been waiting 3 hours for towels. I then asked him if this was acceptable to him. He said that the girl is on lunch. I then advised him that we arrived at 1:30 pm and it is now 4:30 pm and that the cleaning cart and the door next to ours is open. So she has been on a 3 hour lunch. Regardless, the hotel was clean, it is near a busy route( which is not the hotels fault) I do think that when you check in to a hotel you do get towels and not have to ask for them 3 times.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. When we checked we noticed that we did not have any towels to take a shower. We went back to the front desk, who stated that someone will be back to our room. After an hour we called the front desk again to be told the towels will arrive shortly. After 3 hours, went back to the front desk and asked to speak with a manager. I asked him if he knows that we have been waiting 3 hours for towels. I then asked him if this was acceptable to him. He said that the girl is on lunch. I then advised him that we arrived at 1:30 pm and it is now 4:30 pm and that the cleaning cart and the door next to ours is open. So she has been on a 3 hour lunch. Regardless, the hotel was clean, it is near a busy route( which is not the hotels fault) I do think that when you check in to a hotel you do get towels and not have to ask for them 3 times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r60479962-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>60479962</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Friendly, Clean Motel</t>
+  </si>
+  <si>
+    <t>We loved our stay at Motel 6, Westminster South. The staff was friendly and the rooms were clean.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r4255524-Motel_6_Westminster_South-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>4255524</t>
+  </si>
+  <si>
+    <t>12/21/2005</t>
+  </si>
+  <si>
+    <t>A little rough around the edges.</t>
+  </si>
+  <si>
+    <t>I arrived at this place while they were mid way through a renovation.The room I checked into had recently been completed so it was new and clean but still smelt of paint.The location is right by the freeway so its pretty noisy.Bring your ear plugs.There is food and services nearby and an In-N-Out Burger next door so that was great.One thing I noticed was the 405 offramp side seemed a little seedy.I think there were long timers staying there.Overall good for a nite or two.</t>
+  </si>
+  <si>
+    <t>February 2005</t>
   </si>
 </sst>
 </file>
@@ -648,6 +864,646 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6359</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_564.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_564.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Alexandra J</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>srinishines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r274916212-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>First of all i would like to start by saying some good words. ~~~ Good One's ~~~Staff's are excellent. They are responsive and very friendly. Location was good. Gas station and In/Out Burger near by. Free Ice Machine :), i liked it.~~~ Bad Ones ~~~The room was pathetic. Very small shower space. (Fatty boys like me cant fit for sure).AC makes lot of noise.  Even the Airplane makes less noise. Zero cooling.Bed is too hard and not at all comfortable. Sleep on a rock instead.Charged for a cancelled reservation. They will refund back, but it is unnecessarily blocking my Card.Parking lot is little cramped. If you ask me  if it is worth the money, i would partially agree. But just a few xtra bucks will help to make your stay more memorable.ThanksMore</t>
   </si>
   <si>
+    <t>heumanntouch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r248872850-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>79lauraz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r211779349-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>As soon as we walked in my 11 year old daughter wanted to leave. Non smoking room, smelled like cigarettes. It was musty, stinky, and damp.  When I pulled the covers off of the bed it looked like someone had emptied a hairbrush between the sheets.  When I went to the office to ask for new sheets (even though we were going to sleep in our sleeping bags) the lady in the office was kind and gave me new ones.  Well, when the new ones were covered with hair too we just had to leave.  I felt bad, but with the not so safe location and the fact that the place just wasn't clean we never would have slept through the night.  Do yourself a favor and go somewhere else unless you enjoy staying somewhere disgusting.  Oh and my money was returned with no problem.More</t>
   </si>
   <si>
+    <t>Mitch H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r198577602-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>hellogommer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r152808595-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>I love this place. The staff made me feel very comfortable. Everyone is extremely friendly and the room was comfortable and clean. Also my dog can stay. I love it. Not to mention affordable prices and great location. Just a great motel. I would recommend this motel to everyone.</t>
   </si>
   <si>
+    <t>jmullins762</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r80597685-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>I stayed at this Motel 6 for one short night as it is right around the corner from a fiend's place.  I was concerned that the area did not seem the greatest and the property seemed a little run-down. The room I was given was okay, but as is always the case with Motel 6, no frills.  I had asked from  a quiet room, since the motel is right next to the very busy 405 freeway.   I think they gave me the quietest location possible, but, it was still fairly loud, but not too bad, considering the amount of traffic on the freeway.  The WiFi (currently $2.99 for 24 hours access) was fine.  Overall, I was a bit concerned about staying here, and I am unsure if I would stay again. It is the cheapest rate around, but I wonder if more money in a nicer area might be worth it.More</t>
   </si>
   <si>
+    <t>Altmeier2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r67428444-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Stayed here for 2 nights. When we checked we noticed that we did not have any towels to take a shower. We went back to the front desk, who stated that someone will be back to our room. After an hour we called the front desk again to be told the towels will arrive shortly. After 3 hours, went back to the front desk and asked to speak with a manager. I asked him if he knows that we have been waiting 3 hours for towels. I then asked him if this was acceptable to him. He said that the girl is on lunch. I then advised him that we arrived at 1:30 pm and it is now 4:30 pm and that the cleaning cart and the door next to ours is open. So she has been on a 3 hour lunch. Regardless, the hotel was clean, it is near a busy route( which is not the hotels fault) I do think that when you check in to a hotel you do get towels and not have to ask for them 3 times.More</t>
   </si>
   <si>
+    <t>HOJO-Los-Angeles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r60479962-Motel_6_Westminster_South-Westminster_California.html</t>
   </si>
   <si>
@@ -346,6 +373,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Give-me-a-break-man</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82619-r4255524-Motel_6_Westminster_South-Westminster_California.html</t>
@@ -868,43 +898,47 @@
       <c r="A2" t="n">
         <v>6359</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -918,50 +952,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6359</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -979,56 +1017,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6359</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1048,50 +1090,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6359</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1115,50 +1161,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6359</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1172,41 +1222,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6359</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1235,50 +1289,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6359</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1302,50 +1360,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6359</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1369,50 +1431,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6359</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1436,50 +1502,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6359</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1501,7 +1571,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
